--- a/02-15-26 to 02-21-26 Madison Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1174,15 +1174,10 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1250,7 +1245,9 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Driver, 1/2
+Camry 3,
+Rx</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1273,10 +1270,15 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1340,13 +1342,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1357,13 +1358,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1405,13 +1405,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store w/ Nate 1/2 Prius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1422,16 +1421,10 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1440,12 +1433,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1456,7 +1449,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1495,14 +1488,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store w/ Nate 1/2 Prius</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1511,7 +1500,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1523,14 +1512,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1539,7 +1524,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1578,7 +1563,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1590,10 +1575,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1602,10 +1591,16 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1614,12 +1609,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1653,10 +1648,15 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1665,12 +1665,13 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1681,14 +1682,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van,
-Supv Rx</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1699,7 +1698,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1738,10 +1737,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1767,12 +1770,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1822,12 +1826,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1838,27 +1843,32 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>Nate</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Driver, 1/2
 Optima</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1867,7 +1877,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1906,13 +1916,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1923,13 +1932,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1940,7 +1949,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1957,7 +1966,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1989,21 +1998,9 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -2012,7 +2009,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2028,13 +2025,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2045,7 +2041,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2088,12 +2084,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2104,7 +2101,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2120,7 +2117,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2141,7 +2138,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2151,13 +2152,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2177,21 +2177,9 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -2207,7 +2195,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2219,12 +2207,13 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2235,7 +2224,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2266,7 +2255,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #81, HUNTLEY</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2278,34 +2267,25 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2326,26 +2306,14 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KELLEY #81, HUNTLEY</t>
+          <t>10111 IL-47</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2354,7 +2322,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2377,7 +2345,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10111 IL-47</t>
+          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2387,13 +2355,17 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #36, LOVES PARK MOBIL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2416,19 +2388,23 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/b2BbTcWQoU3WW5Ky9</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2436,7 +2412,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>KELLEY #36, LOVES PARK MOBIL</t>
+          <t>6224 N 2ND ST</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2459,7 +2435,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2467,7 +2443,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2475,7 +2451,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2483,7 +2459,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6224 N 2ND ST</t>
+          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2504,17 +2480,13 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2522,7 +2494,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
+          <t>1730 S WEST ST</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2530,7 +2502,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2550,14 +2522,26 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
+          <t>5700 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2565,17 +2549,13 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1730 S WEST ST</t>
+          <t>https://goo.gl/maps/2ZXywmPJqto</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2595,24 +2575,25 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver, 1/2
+Red Camry</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5700 WEST CAPITOL DR</t>
+          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2620,14 +2601,26 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2ZXywmPJqto</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2646,25 +2639,24 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2672,26 +2664,22 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2710,44 +2698,32 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #1</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2769,32 +2745,61 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Michael</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>@ Store, Eqiup</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2812,61 +2817,63 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>Driver, 1/2
+Red Camry,
+Trainer</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>@ Store, Eqiup</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2896,30 +2903,24 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry,
-Trainer</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2930,29 +2931,24 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2978,24 +2974,28 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3006,24 +3006,24 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3052,58 +3052,50 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3115,10 +3107,14 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3133,44 +3129,32 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3182,12 +3166,13 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -3204,12 +3189,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3222,34 +3207,13 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3264,12 +3228,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3303,17 +3267,17 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3326,7 +3290,11 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3342,17 +3310,17 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3367,7 +3335,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3385,12 +3353,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3410,7 +3378,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #15, WEST ST MOBIL (NORTH), FREEPORT</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3428,17 +3396,18 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 12:00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3453,7 +3422,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>KELLEY #15, WEST ST MOBIL (NORTH), FREEPORT</t>
+          <t>1111 S WEST ST</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3469,22 +3438,9 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3497,7 +3453,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>1111 S WEST ST</t>
+          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3528,7 +3484,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3545,7 +3501,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3559,7 +3519,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3578,7 +3538,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3592,11 +3552,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3613,7 +3569,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #37, ROCKTON MOBIL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3626,9 +3582,21 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3644,7 +3612,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>KELLEY #37, ROCKTON MOBIL</t>
+          <t>111 N BLACKHAWK BLVD</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3659,17 +3627,18 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3687,7 +3656,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>111 N BLACKHAWK BLVD</t>
+          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3702,20 +3671,15 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3731,7 +3695,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3746,12 +3710,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3768,11 +3732,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3785,15 +3745,19 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3806,9 +3770,21 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3818,21 +3794,9 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3847,19 +3811,15 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -3886,12 +3846,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3921,12 +3881,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3956,12 +3916,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3980,41 +3940,6 @@
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-15-26 to 02-21-26 Madison Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Madison Schedule.xlsx
@@ -1682,12 +1682,13 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1770,13 +1771,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Optima</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1860,7 +1861,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1949,13 +1950,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2217,21 +2217,9 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2316,7 +2304,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2357,7 +2349,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2404,7 +2396,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2451,7 +2443,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
+          <t>1730 S WEST ST</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2494,7 +2486,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1730 S WEST ST</t>
+          <t>https://goo.gl/maps/2ZXywmPJqto</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2549,7 +2541,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2ZXywmPJqto</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2601,7 +2593,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2662,11 +2654,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2712,9 +2700,21 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store, Eqiup</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2778,17 +2778,18 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>@ Store, Eqiup</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2851,20 +2852,15 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2931,12 +2927,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3006,15 +3002,19 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3072,21 +3072,9 @@
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>

--- a/02-15-26 to 02-21-26 Madison Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Madison Schedule.xlsx
@@ -1172,11 +1172,7 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
@@ -1358,7 +1354,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1449,7 +1445,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1524,12 +1520,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1609,7 +1605,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1699,7 +1695,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1788,7 +1784,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1878,7 +1874,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1966,7 +1962,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2041,7 +2037,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2110,21 +2106,9 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -3035,15 +3019,10 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3095,12 +3074,13 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -3278,11 +3258,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3323,7 +3299,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3366,7 +3342,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>KELLEY #15, WEST ST MOBIL (NORTH), FREEPORT</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3410,7 +3386,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>1111 S WEST ST</t>
+          <t>KELLEY #15, WEST ST MOBIL (NORTH), FREEPORT</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3441,7 +3417,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
+          <t>1111 S WEST ST</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3472,7 +3448,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3507,7 +3483,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3540,7 +3516,11 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:45 am at IL Office</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3570,21 +3550,9 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3615,18 +3583,17 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3659,15 +3626,20 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3698,12 +3670,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3733,19 +3705,15 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3782,9 +3750,21 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>

--- a/02-15-26 to 02-21-26 Madison Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Madison Schedule.xlsx
@@ -1354,12 +1354,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1520,12 +1520,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -2037,12 +2037,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2106,9 +2106,21 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>

--- a/02-15-26 to 02-21-26 Madison Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Madison Schedule.xlsx
@@ -1172,7 +1172,11 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">

--- a/02-15-26 to 02-21-26 Madison Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Madison Schedule.xlsx
@@ -1270,13 +1270,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>@ Store, until 10:00</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1358,12 +1357,13 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1449,12 +1449,13 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1524,12 +1525,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>@ Store, Until 10</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1609,7 +1610,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1699,7 +1700,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1788,7 +1789,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1878,7 +1879,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1966,12 +1967,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -2041,7 +2042,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2117,12 +2118,12 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2177,9 +2178,21 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -2269,11 +2282,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2314,7 +2323,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2357,7 +2366,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>KELLEY #36, LOVES PARK MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2404,7 +2413,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6224 N 2ND ST</t>
+          <t>KELLEY #36, LOVES PARK MOBIL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2451,7 +2460,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
+          <t>6224 N 2ND ST</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2494,7 +2503,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2547,7 +2556,11 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2598,21 +2611,9 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2659,15 +2660,19 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2718,12 +2723,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2795,12 +2800,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2864,12 +2869,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2939,12 +2944,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3018,12 +3023,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3073,7 +3078,7 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3133,7 +3138,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -3195,9 +3200,21 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>

--- a/02-15-26 to 02-21-26 Madison Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Madison Schedule.xlsx
@@ -1525,7 +1525,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">

--- a/02-15-26 to 02-21-26 Madison Schedule.xlsx
+++ b/02-15-26 to 02-21-26 Madison Schedule.xlsx
@@ -2234,9 +2234,21 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
@@ -2321,11 +2333,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2366,7 +2374,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2413,7 +2421,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>KELLEY #36, LOVES PARK MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2460,7 +2468,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6224 N 2ND ST</t>
+          <t>KELLEY #36, LOVES PARK MOBIL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2503,7 +2511,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
+          <t>6224 N 2ND ST</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2558,7 +2566,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2612,7 +2620,11 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2658,21 +2670,9 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2723,15 +2723,19 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
@@ -2800,12 +2804,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2869,12 +2873,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2944,12 +2948,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3023,12 +3027,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3078,12 +3082,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3138,12 +3142,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3196,8 +3200,16 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
